--- a/loaded_influencer_data/visualswithjas/visualswithjas_video.xlsx
+++ b/loaded_influencer_data/visualswithjas/visualswithjas_video.xlsx
@@ -506,7 +506,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@visualswithjas/video/7340267206539742497</t>
         </is>
@@ -564,7 +564,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@visualswithjas/video/7334781638171266336</t>
         </is>
@@ -576,7 +576,7 @@
         <v>107</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10.54131054131054</v>
+        <v>12.06077872744539</v>
       </c>
       <c r="I3" t="n">
         <v>10.16144349477683</v>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3798670465337132</v>
+        <v>1.899335232668566</v>
       </c>
       <c r="L3" t="n">
         <v>0.949667616334283</v>
@@ -621,13 +621,13 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@visualswithjas/video/7330600489425374496</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C4" t="n">
         <v>106</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10.39783001808318</v>
+        <v>10.38843721770551</v>
       </c>
       <c r="I4" t="n">
-        <v>9.584086799276673</v>
+        <v>9.57542908762421</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.81374321880651</v>
+        <v>0.8130081300813009</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6329113924050633</v>
+        <v>0.6323396567299007</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -674,16 +674,16 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@visualswithjas/video/7425163954617453857</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2323</v>
+        <v>2325</v>
       </c>
       <c r="C5" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -701,19 +701,19 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3.400774860094705</v>
+        <v>3.354838709677419</v>
       </c>
       <c r="I5" t="n">
-        <v>3.357727077055531</v>
+        <v>3.311827956989247</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04304778303917348</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1721911321566939</v>
+        <v>0.1720430107526882</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -725,19 +725,19 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@visualswithjas/video/7423849063042370848</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -754,19 +754,19 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3.976721629485936</v>
+        <v>4.263565891472868</v>
       </c>
       <c r="I6" t="n">
-        <v>3.87972841901067</v>
+        <v>3.77906976744186</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09699321047526674</v>
+        <v>0.4844961240310077</v>
       </c>
       <c r="L6" t="n">
-        <v>0.387972841901067</v>
+        <v>0.3875968992248062</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -778,13 +778,13 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@visualswithjas/video/7423659357180677409</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="C7" t="n">
         <v>87</v>
@@ -806,19 +806,19 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8.691834942932397</v>
+        <v>8.669001751313484</v>
       </c>
       <c r="I7" t="n">
-        <v>7.638279192273925</v>
+        <v>7.618213660245184</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1.053555750658472</v>
+        <v>1.050788091068301</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6145741878841089</v>
+        <v>0.6129597197898424</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -830,13 +830,13 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@visualswithjas/video/7423273892384361761</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C8" t="n">
         <v>105</v>
@@ -858,19 +858,19 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10.15037593984962</v>
+        <v>10.14084507042254</v>
       </c>
       <c r="I8" t="n">
-        <v>9.868421052631579</v>
+        <v>9.859154929577464</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2819548872180451</v>
+        <v>0.2816901408450704</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5639097744360901</v>
+        <v>0.5633802816901409</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@visualswithjas/video/7423028574875127073</t>
         </is>
@@ -933,7 +933,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@visualswithjas/photo/7413717284990012705</t>
         </is>
@@ -983,7 +983,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@visualswithjas/photo/7413440028518452513</t>
         </is>
@@ -1033,7 +1033,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@visualswithjas/video/7413016504649796897</t>
         </is>
@@ -1084,7 +1084,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@visualswithjas/video/7411835558378376481</t>
         </is>
@@ -1135,7 +1135,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@visualswithjas/video/7410303435477716257</t>
         </is>
@@ -1186,7 +1186,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@visualswithjas/video/7409186519463808288</t>
         </is>
@@ -1236,7 +1236,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@visualswithjas/video/7408500837363748129</t>
         </is>
@@ -1287,7 +1287,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@visualswithjas/video/7408232452528901409</t>
         </is>
@@ -1339,7 +1339,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@visualswithjas/photo/7408058432344968480</t>
         </is>
@@ -1390,7 +1390,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@visualswithjas/video/7407124576032886049</t>
         </is>
@@ -1441,7 +1441,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@visualswithjas/video/7407074927221673248</t>
         </is>
@@ -1493,7 +1493,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@visualswithjas/video/7406771894168358176</t>
         </is>
@@ -1544,7 +1544,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@visualswithjas/video/7406627577692949793</t>
         </is>
@@ -1596,7 +1596,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@visualswithjas/video/7389666519703112992</t>
         </is>
@@ -1646,7 +1646,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@visualswithjas/video/7374321337369726241</t>
         </is>
@@ -1697,7 +1697,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@visualswithjas/video/7373586971249134880</t>
         </is>
@@ -1748,7 +1748,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@visualswithjas/photo/7371787554691075360</t>
         </is>
@@ -1799,7 +1799,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@visualswithjas/video/7371487297922927904</t>
         </is>
@@ -1849,7 +1849,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@visualswithjas/video/7370289243253411105</t>
         </is>
@@ -1899,7 +1899,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@visualswithjas/video/7369244998606327072</t>
         </is>
@@ -1949,7 +1949,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@visualswithjas/video/7368878799020117280</t>
         </is>
@@ -1999,7 +1999,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@visualswithjas/video/7368767318131838240</t>
         </is>
@@ -2049,7 +2049,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@visualswithjas/video/7368332458019884321</t>
         </is>
@@ -2100,7 +2100,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@visualswithjas/photo/7340934380589681952</t>
         </is>
@@ -2150,7 +2150,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@visualswithjas/video/7340592729614847264</t>
         </is>
@@ -2205,7 +2205,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@visualswithjas/video/7340363446791294240</t>
         </is>
@@ -2257,7 +2257,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@visualswithjas/video/7337604636506934561</t>
         </is>
@@ -2308,7 +2308,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@visualswithjas/photo/7337267236127640865</t>
         </is>
@@ -2363,7 +2363,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@visualswithjas/video/7335854160459386145</t>
         </is>
@@ -2421,7 +2421,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@visualswithjas/video/7335550274272038177</t>
         </is>
@@ -2478,7 +2478,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@visualswithjas/video/7335422608952937760</t>
         </is>
@@ -2530,7 +2530,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@visualswithjas/video/7335070885801446688</t>
         </is>
@@ -2586,7 +2586,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@visualswithjas/video/7334942539553754400</t>
         </is>
@@ -2643,7 +2643,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@visualswithjas/photo/7332962737477143841</t>
         </is>
